--- a/AAII_Financials/Yearly/AES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AES_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>AES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,157 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10189000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10736000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10530000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10281000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11260000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16124000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15891000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17164000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16098000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7840000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8163000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8066000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7901000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20694000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27202000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12644000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28008000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24918000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2349000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2573000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2464000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2380000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-9434000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-11078000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3247000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-10844000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-8820000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,8 +828,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -845,9 +858,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -875,39 +891,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E14" s="3">
         <v>364000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>564000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1118000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>783000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>498000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>624000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1898000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>207000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,9 +957,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -947,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8297000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7753000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8875000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9190000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9488000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14553000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14714000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16884000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13756000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1892000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2983000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1655000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1091000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1772000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1571000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1177000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>280000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2342000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E20" s="3">
         <v>91000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>286000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>230000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>362000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-128000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-129000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1522000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-82000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3096000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4077000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3110000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2497000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3278000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2688000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2342000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3196000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3522000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1056000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1170000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1134000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1145000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>1572000</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2018000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>771000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>187000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>989000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1443000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1048000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>230000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2260000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E24" s="3">
         <v>670000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>951000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>412000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>371000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>343000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>685000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>656000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1348000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-180000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>155000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>577000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1072000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>705000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-455000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1604000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1023000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-468000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>318000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>705000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>284000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-960000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>506000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1290,39 +1347,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>180000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-693000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1110000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-12000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>91000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-170000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>35000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-545000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1380,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-91000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-286000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-230000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-362000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>128000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>129000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1522000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>82000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1203000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1161000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1119000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>306000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>796000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>114000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-925000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-39000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1470,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1203000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1161000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1119000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>306000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>796000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>114000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-925000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-39000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1564,278 +1649,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1166000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>949000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1244000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1257000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1539000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1642000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1695000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E42" s="3">
         <v>313000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>424000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>530000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>469000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>709000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>668000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>693000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1356000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1595000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1463000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1421000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2302000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2709000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2363000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2539000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2529000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E44" s="3">
         <v>577000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>562000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>622000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>671000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>702000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>684000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>719000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>775000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1836000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1364000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2599000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2143000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2167000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2382000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3688000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2881000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5231000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5015000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6398000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6416000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6842000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7826000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7739000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8465000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9229000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2317000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2537000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1197000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>621000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>610000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>537000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1010000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1196000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1422000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22822000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21396000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20296000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20415000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49773000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25151000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25112000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>55086000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>52628000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1528000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1495000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2785000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4436000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6370000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1739000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1919000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2718000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4931000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1863,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2078000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2436000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5783000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3956000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3713000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4631000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7401000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5329000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1953,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33648000</v>
+      </c>
+      <c r="E54" s="3">
         <v>32521000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33112000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36124000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36470000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38966000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40411000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41830000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45346000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1998,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2012,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1329000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1371000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1238000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1571000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2278000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2259000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2545000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2008000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1659000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2164000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1052000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2172000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2133000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2180000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2505000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2428000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1917000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1411000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2493000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2987000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3183000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2586000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3214000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5619000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4002000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5096000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4399000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6028000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5277000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6926000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6997000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7653000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8319000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8438000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18305000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17636000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17801000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18402000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17909000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18725000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18869000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18216000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19592000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4130000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4003000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3601000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3368000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4803000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5841000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5728000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10682000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9280000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2221,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2251,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2281,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30652000</v>
+      </c>
+      <c r="E66" s="3">
         <v>29313000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30647000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33330000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33321000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34694000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>36081000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37261000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39400000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2385,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2415,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2445,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-692000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1005000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2276000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1146000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>143000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>512000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-264000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>678000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2505,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2535,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2565,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2996000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3208000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2465000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2794000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3149000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4272000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4330000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4569000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5946000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2625,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1203000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1161000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1119000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>306000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>796000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>114000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-925000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-39000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2705,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1003000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1169000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1176000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1144000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1245000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1294000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1394000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1262000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2764,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2794,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2824,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2854,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2884,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2394000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2417000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2376000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2855000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2159000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1850000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2711000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3033000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2805000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2929,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2405000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2177000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2345000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2308000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2016000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1988000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2108000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2430000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2988,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3018,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2721000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-505000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2599000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2136000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2366000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-656000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1774000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-895000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4906000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3063,38 +3295,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-344000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-317000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-290000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-276000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-144000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-119000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-30000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3122,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3152,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3182,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1643000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>43000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-747000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>28000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1262000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1136000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1867000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1412000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-54000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-52000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-51000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-59000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-122000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-431000</v>
+      </c>
+      <c r="E102" s="3">
         <v>215000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-172000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-231000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-119000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-258000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>276000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-811000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>AES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,169 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9660000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10189000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10736000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10530000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10281000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11260000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16124000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15891000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17164000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16098000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6967000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7840000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8163000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8066000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7901000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20694000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27202000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12644000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28008000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>24918000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2693000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2349000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2573000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2464000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2380000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-9434000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-11078000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3247000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-10844000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8820000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,8 +841,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,9 +874,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,42 +910,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E14" s="3">
         <v>272000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>364000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>564000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1118000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>783000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>498000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>624000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1898000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>207000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,9 +982,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8255000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8297000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7753000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8875000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9190000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9488000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14553000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14714000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16884000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13756000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1892000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2983000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1655000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1091000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1772000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1571000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1177000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>280000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2342000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,173 +1086,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E20" s="3">
         <v>159000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>91000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>286000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>230000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>362000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-128000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-129000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1522000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-82000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3096000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4077000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3110000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2497000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3278000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2688000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2342000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3196000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3522000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1050000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1056000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1170000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1134000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1145000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>1572000</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1001000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2018000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>771000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>187000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>989000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1443000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1048000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>230000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2260000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E24" s="3">
         <v>352000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>670000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>951000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>412000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>371000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>343000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>685000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>656000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1251,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E26" s="3">
         <v>649000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1348000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-180000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>155000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>577000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1072000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>705000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-455000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1604000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E27" s="3">
         <v>302000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1023000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-468000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>318000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>705000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>284000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-960000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>506000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,42 +1407,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="3">
         <v>1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>180000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-693000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1110000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-12000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>91000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-170000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>35000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-545000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-159000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-91000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-286000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-230000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-362000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>128000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>129000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1522000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>82000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E33" s="3">
         <v>303000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1203000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1161000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1119000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>306000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>796000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>114000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-925000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-39000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E35" s="3">
         <v>303000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1203000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1161000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1119000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>306000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>796000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>114000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-925000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-39000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,305 +1735,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1029000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1166000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>949000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1244000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1257000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1539000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1642000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1695000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E42" s="3">
         <v>400000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>313000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>424000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>530000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>469000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>709000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>668000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>693000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1356000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1479000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1595000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1463000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1421000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2302000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2709000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2363000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2539000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2529000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E44" s="3">
         <v>487000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>577000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>562000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>622000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>671000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>702000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>684000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>719000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>775000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2229000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1836000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1364000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2599000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2143000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2167000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2382000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3688000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2881000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5414000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5231000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5015000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6398000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6416000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6842000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7826000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7739000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8465000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9229000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>835000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2317000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2537000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1197000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>621000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>610000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>537000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1010000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1196000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1422000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23101000</v>
+      </c>
+      <c r="E48" s="3">
         <v>22822000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21396000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20296000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20415000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49773000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25151000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25112000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55086000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>52628000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1888000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1528000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1495000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2785000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4436000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6370000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1739000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1919000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2718000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4931000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3365000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1750000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2078000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2436000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5783000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3956000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3713000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4631000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7401000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5329000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34603000</v>
+      </c>
+      <c r="E54" s="3">
         <v>33648000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32521000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33112000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36124000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36470000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38966000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40411000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41830000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45346000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2271,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1311000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1329000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1371000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1238000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1571000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2278000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2259000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2545000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2008000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1868000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1659000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2164000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1052000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2172000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2133000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2180000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2505000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2428000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2776000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1917000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1411000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2493000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2987000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3183000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2586000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3214000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5619000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4002000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5362000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5096000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4399000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6028000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5277000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6926000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6997000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7653000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8319000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8438000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18451000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18305000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17636000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17801000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18402000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17909000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18725000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18869000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18216000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19592000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4341000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4130000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4003000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3601000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3368000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4803000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5841000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5728000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10682000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9280000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2405,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31969000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30652000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29313000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30647000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33330000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33321000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34694000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>36081000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37261000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39400000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-680000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-692000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1005000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2276000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1146000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>143000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>512000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-150000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-264000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>678000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2634000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2996000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3208000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2465000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2794000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3149000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4272000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4330000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4569000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5946000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E81" s="3">
         <v>303000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1203000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1161000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1119000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>306000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>796000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>114000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-925000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-39000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1068000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1045000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1003000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1169000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1176000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1144000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1245000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1294000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1394000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1262000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2652000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2394000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2417000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2376000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2855000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2159000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1850000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2711000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3033000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2805000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2405000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2177000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2345000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2308000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2016000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1988000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2108000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2430000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2295000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2721000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-505000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2599000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2136000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2366000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-656000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1774000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-895000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4906000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-381000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-362000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-344000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-317000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-290000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-276000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-144000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-119000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-30000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-86000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1643000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>43000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-747000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>28000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1262000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1136000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1867000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1412000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-54000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>37000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-52000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-51000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-59000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-122000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-431000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>215000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-172000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-231000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-119000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-258000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>276000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-811000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>AES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,181 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11141000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9660000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10189000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10736000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10530000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10281000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11260000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16124000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15891000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17164000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16098000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8430000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6967000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7840000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8163000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8066000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7901000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20694000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27202000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12644000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28008000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24918000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2711000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2693000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2349000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2573000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2464000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2380000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-9434000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-11078000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3247000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-10844000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-8820000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +854,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,9 +890,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,45 +929,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1668000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1065000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>272000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>364000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>564000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1118000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>783000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>498000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>624000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1898000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>207000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,9 +1007,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11582000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8255000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8297000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7753000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8875000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9190000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9488000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14553000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14714000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16884000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13756000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-441000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1405000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1892000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2983000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1655000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1091000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1772000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1571000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1177000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>280000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2342000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,188 +1119,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E20" s="3">
         <v>121000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>159000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>91000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>286000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>230000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>362000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-128000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-129000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1522000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-82000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2594000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3096000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4077000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3110000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2497000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3278000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2688000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2342000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3196000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3522000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1038000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1050000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1056000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1170000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1134000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1145000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>1572000</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1064000</v>
+      </c>
+      <c r="E23" s="3">
         <v>488000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1001000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2018000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>771000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>187000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>989000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1443000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1048000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>230000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2260000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E24" s="3">
         <v>216000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>352000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>670000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>951000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>412000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>371000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>343000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>685000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>656000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-931000</v>
+      </c>
+      <c r="E26" s="3">
         <v>272000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>649000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1348000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-180000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>155000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>577000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1072000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>705000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-455000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1604000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="E27" s="3">
         <v>43000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>302000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1023000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-468000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>318000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>705000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>284000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-960000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>506000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1410,45 +1467,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E29" s="3">
         <v>3000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>180000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-693000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1110000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-12000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>91000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-170000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>35000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-545000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-288000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-121000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-159000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-91000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-286000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-230000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-362000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>128000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>129000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1522000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>82000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E33" s="3">
         <v>46000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>303000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1203000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1161000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1119000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>306000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>796000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>114000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-925000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-39000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E35" s="3">
         <v>46000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>303000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1203000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1161000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1119000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>306000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>796000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>114000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-925000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-39000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,332 +1821,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1089000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1029000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1166000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>949000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1244000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1257000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1539000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1642000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1695000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E42" s="3">
         <v>335000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>400000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>313000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>424000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>530000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>469000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>709000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>668000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>693000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1356000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1418000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1479000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1595000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1463000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1421000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2302000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2709000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2363000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2539000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2529000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E44" s="3">
         <v>461000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>487000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>577000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>562000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>622000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>671000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>702000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>684000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>719000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>775000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2229000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1836000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1364000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2599000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2143000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2167000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2382000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3688000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2881000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5356000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5414000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5231000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5015000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6398000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6416000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6842000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7826000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7739000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8465000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9229000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E47" s="3">
         <v>835000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2317000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2537000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1197000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>621000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>610000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>537000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1010000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1196000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1422000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20184000</v>
+      </c>
+      <c r="E48" s="3">
         <v>23101000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22822000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21396000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20296000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20415000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49773000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>25151000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25112000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55086000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52628000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2627000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1888000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1528000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1495000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2785000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4436000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6370000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1739000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1919000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2718000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4931000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3716000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3365000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1750000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2078000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2436000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5783000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3956000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3713000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4631000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7401000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5329000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32963000</v>
+      </c>
+      <c r="E54" s="3">
         <v>34603000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33648000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32521000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33112000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36124000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36470000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38966000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40411000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41830000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45346000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,224 +2401,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1153000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1156000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1311000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1329000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1371000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1238000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1571000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2278000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2259000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2545000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2008000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1367000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1430000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1868000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1659000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2164000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1052000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2172000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2133000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2180000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2505000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2428000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2212000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2776000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1917000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1411000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2493000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2987000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3183000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2586000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3214000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5619000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4002000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4732000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5362000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5096000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4399000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6028000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5277000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6926000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6997000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7653000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8319000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8438000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17332000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18451000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18305000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17636000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17801000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18402000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17909000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18725000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18869000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18216000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19592000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4335000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4341000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4130000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4003000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3601000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3368000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4803000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5841000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5728000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10682000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9280000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2559,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30165000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31969000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30652000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29313000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30647000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33330000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33321000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34694000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36081000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37261000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39400000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,14 +2883,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>825000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2755,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1089000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-680000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-692000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1005000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2276000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1146000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>143000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>512000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-264000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>678000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1973000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2634000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2996000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3208000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2465000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2794000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3149000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4272000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4330000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4569000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5946000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E81" s="3">
         <v>46000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>303000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1203000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1161000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1119000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>306000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>796000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>114000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-925000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-39000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1056000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1068000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1045000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1003000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1169000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1176000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1144000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1245000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1294000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1394000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1262000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1957000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2652000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2394000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2417000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2376000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2855000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2159000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1850000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2711000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3033000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2805000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2116000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2405000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2177000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2345000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2308000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2016000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1988000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2108000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2430000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3051000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2295000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2721000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-505000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2599000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2136000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2366000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-656000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1774000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-895000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4906000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,44 +3761,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-401000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-381000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-362000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-344000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-317000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-290000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-276000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-144000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-119000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-30000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-78000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-86000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1643000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>43000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-747000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>28000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1262000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1136000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1867000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1412000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-24000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-54000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>37000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-52000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-51000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-122000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-343000</v>
+      </c>
+      <c r="E102" s="3">
         <v>255000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-431000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>215000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-172000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-231000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-119000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-258000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>276000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-811000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AES_YR_FIN.xlsx
@@ -939,25 +939,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1668000</v>
+        <v>3351000</v>
       </c>
       <c r="E14" s="3">
-        <v>1065000</v>
+        <v>1160000</v>
       </c>
       <c r="F14" s="3">
-        <v>272000</v>
+        <v>244000</v>
       </c>
       <c r="G14" s="3">
-        <v>364000</v>
+        <v>-620000</v>
       </c>
       <c r="H14" s="3">
-        <v>564000</v>
+        <v>616000</v>
       </c>
       <c r="I14" s="3">
-        <v>1118000</v>
+        <v>1089000</v>
       </c>
       <c r="J14" s="3">
-        <v>783000</v>
+        <v>754000</v>
       </c>
       <c r="K14" s="3">
         <v>498000</v>

--- a/AAII_Financials/Yearly/AES_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AES_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>AES</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12617000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11141000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9660000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10189000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10736000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10530000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10281000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11260000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16124000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15891000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17164000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16098000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10069000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8430000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6967000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7840000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8163000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8066000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7901000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20694000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27202000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12644000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28008000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24918000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2548000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2711000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2693000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2349000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2573000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2464000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2380000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-9434000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-11078000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3247000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-10844000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-8820000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +867,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,9 +906,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,48 +948,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3351000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1160000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>244000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-620000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>616000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1089000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>754000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>498000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>624000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1898000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>207000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1010,9 +1032,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11806000</v>
+      </c>
+      <c r="E17" s="3">
         <v>11582000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8255000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8297000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7753000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8875000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9190000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9488000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14553000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14714000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16884000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13756000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>811000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-441000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1405000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1892000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2983000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1655000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1091000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1772000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1571000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1177000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>280000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2342000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E20" s="3">
         <v>288000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>121000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>159000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>91000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>286000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>230000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>362000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-128000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-129000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1522000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-82000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="E21" s="3">
         <v>903000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2594000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3096000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4077000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3110000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2497000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3278000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2688000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2342000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3196000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3522000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E22" s="3">
         <v>911000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1038000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1050000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1056000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1170000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1134000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1145000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>1572000</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1064000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>488000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1001000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2018000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>771000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>187000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>989000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1443000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1048000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>230000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2260000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-133000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>216000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>352000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>670000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>951000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>412000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>371000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>343000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>685000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>656000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-434000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-931000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>272000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>649000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1348000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-180000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>155000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>577000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1072000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>705000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-455000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1604000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-413000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>43000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>302000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1023000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-468000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>318000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>705000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>284000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-960000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>506000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,48 +1527,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>4000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>180000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-693000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1110000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-12000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>91000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-170000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>35000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-545000</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-288000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-121000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-159000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-91000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-286000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-230000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-362000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>128000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>129000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1522000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>82000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-409000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>46000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>303000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1203000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1161000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1119000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>306000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>796000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>114000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-925000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-39000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-409000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>46000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>303000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1203000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1161000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1119000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>306000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>796000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>114000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-925000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-39000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,359 +1907,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1374000</v>
+      </c>
+      <c r="E41" s="3">
         <v>943000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1089000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1029000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1166000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>949000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1244000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1257000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1539000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1642000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1695000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E42" s="3">
         <v>232000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>335000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>400000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>313000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>424000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>530000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>469000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>709000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>668000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>693000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1356000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1799000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1418000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1479000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1595000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1463000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1421000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2302000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2709000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2363000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2539000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2529000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E44" s="3">
         <v>604000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>461000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>487000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>577000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>562000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>622000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>671000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>702000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>684000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>719000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>775000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2685000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2159000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2229000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1836000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1364000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2599000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2143000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2167000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2382000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3688000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2881000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7643000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5356000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5414000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5231000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5015000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6398000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6416000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6842000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7826000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7739000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8465000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9229000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2003000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1080000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>835000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2317000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2537000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1197000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>621000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>610000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>537000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1010000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1196000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1422000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23395000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20184000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23101000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22822000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21396000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20296000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20415000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>49773000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25151000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25112000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>55086000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52628000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2203000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2627000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1888000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1528000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1495000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2785000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4436000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6370000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1739000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1919000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2718000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4931000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3119000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3716000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3365000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1750000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2078000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2436000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5783000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3956000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3713000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4631000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7401000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5329000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38363000</v>
+      </c>
+      <c r="E54" s="3">
         <v>32963000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34603000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33648000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32521000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33112000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36124000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36470000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38966000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40411000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41830000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45346000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,242 +2531,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1730000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1153000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1156000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1311000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1329000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1371000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1238000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1571000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2278000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2259000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2545000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2008000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1367000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1430000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1868000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1659000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2164000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1052000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2172000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2133000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2180000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2505000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2428000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3003000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2212000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2776000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1917000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1411000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2493000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2987000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3183000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2586000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3214000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5619000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4002000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6491000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4732000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5362000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5096000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4399000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6028000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5277000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6926000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6997000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7653000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8319000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8438000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>21740000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17332000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18451000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18305000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17636000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17801000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18402000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17909000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18725000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18869000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18216000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19592000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4307000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4335000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4341000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4130000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4003000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3601000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3368000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4803000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5841000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5728000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10682000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9280000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35926000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30165000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31969000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>30652000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29313000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30647000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33330000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33321000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34694000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36081000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37261000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39400000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,18 +3050,21 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E70" s="3">
         <v>825000</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2925,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1635000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1089000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-680000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-692000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1005000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2276000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1146000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>143000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>512000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-150000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-264000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>678000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1599000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1973000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2634000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2996000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3208000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2465000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2794000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3149000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4272000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4330000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4569000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5946000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-409000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>46000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>303000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1203000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1161000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1119000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>306000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>796000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>114000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-925000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-39000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1053000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1056000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1068000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1045000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1003000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1169000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1176000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1144000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1245000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1294000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1394000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1262000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2737000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1957000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2652000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2394000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2417000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2376000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2855000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2159000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1850000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2711000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3033000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2805000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4551000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2116000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2405000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2121000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2177000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2345000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2308000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2016000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1988000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2108000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2430000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5836000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3051000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2295000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2721000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-505000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2599000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2136000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2366000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-656000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1774000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-895000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4906000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,47 +3994,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-422000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-401000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-381000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-362000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-344000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-317000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-290000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-276000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-144000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-119000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-30000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3758000</v>
+      </c>
+      <c r="E100" s="3">
         <v>797000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-78000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-86000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1643000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>43000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-747000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>28000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1262000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1136000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1867000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1412000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-46000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-24000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-54000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>37000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-52000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-51000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-59000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-122000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-343000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>255000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-431000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>215000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-172000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-231000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-119000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-258000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>276000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-811000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
